--- a/Hashmap_Benchmarks/results/stl_rbh_v2.3_500M_100M.xlsx
+++ b/Hashmap_Benchmarks/results/stl_rbh_v2.3_500M_100M.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JH\Desktop\projects\Hashmap_Optimization\Hashmap_Benchmarks\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\H\Desktop\programing\Hashmap_Optimization\Hashmap_Benchmarks\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F33F753-3DF3-4758-A132-0E785C2D8045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F512E4-D591-45F9-AC14-0D40A600F477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11442" yWindow="0" windowWidth="11676" windowHeight="13038" xr2:uid="{99B71111-A82A-49AB-9339-97B7F2901758}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{99B71111-A82A-49AB-9339-97B7F2901758}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -8260,20 +8260,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB4D2CD-3D17-435B-89B8-A7C10C88A7A4}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K86" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="10.59765625" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -8281,7 +8281,7 @@
         <v>36255395100</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -8289,7 +8289,7 @@
         <v>13629986600</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -8297,7 +8297,7 @@
         <v>58078709700</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>3835258900</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -8313,7 +8313,7 @@
         <v>14865288400</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -8321,7 +8321,7 @@
         <v>670548800</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>100</v>
       </c>
@@ -8338,7 +8338,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -8358,7 +8358,7 @@
         <v>21685410700</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -8378,7 +8378,7 @@
         <v>2590816100</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>100</v>
       </c>
@@ -8395,7 +8395,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -8415,7 +8415,7 @@
         <v>21838478900</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -8435,7 +8435,7 @@
         <v>2222637600</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>100</v>
       </c>
@@ -8452,7 +8452,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -8472,7 +8472,7 @@
         <v>22422641100</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -8492,7 +8492,7 @@
         <v>2235474700</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>100</v>
       </c>
@@ -8509,7 +8509,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v>24734325100</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -8549,7 +8549,7 @@
         <v>2527334500</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>100</v>
       </c>
@@ -8566,7 +8566,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -8586,7 +8586,7 @@
         <v>26470313900</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>0</v>
       </c>
